--- a/Product/Table/Turret.xlsx
+++ b/Product/Table/Turret.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Turret|炮台" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0">
+    <comment ref="C3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
   <si>
     <t>int</t>
   </si>
@@ -85,10 +85,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DamagePerShot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -117,10 +113,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MuzzleFlashDuration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MuzzleEffectName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -145,14 +137,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>炮口闪光持续时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>后坐力旋转角度（枪口上抬）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -197,7 +181,44 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MuzzleFlash</t>
+    <t>Icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turret_1</t>
+  </si>
+  <si>
+    <t>Turret_2</t>
+  </si>
+  <si>
+    <t>Turret_3</t>
+  </si>
+  <si>
+    <t>Turret_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turret_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect_MuzzleFlash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect_MuzzleFlash</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -560,307 +581,348 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4:D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.375" customWidth="1"/>
-    <col min="2" max="2" width="16.375" customWidth="1"/>
-    <col min="3" max="3" width="15.5" customWidth="1"/>
-    <col min="4" max="4" width="15.125" customWidth="1"/>
-    <col min="5" max="5" width="11.625" customWidth="1"/>
-    <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="14.25" customWidth="1"/>
-    <col min="9" max="9" width="14.625" customWidth="1"/>
-    <col min="10" max="10" width="13.875" customWidth="1"/>
-    <col min="11" max="11" width="17.375" customWidth="1"/>
-    <col min="12" max="12" width="16.125" customWidth="1"/>
-    <col min="13" max="13" width="15.5" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="9" max="9" width="17" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" customWidth="1"/>
+    <col min="11" max="11" width="16.21875" customWidth="1"/>
+    <col min="12" max="12" width="21.77734375" customWidth="1"/>
+    <col min="13" max="13" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>16</v>
-      </c>
     </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>17</v>
+      <c r="M3" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="1" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0.5</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="I4">
+        <v>0.7</v>
+      </c>
+      <c r="J4">
+        <v>0.25</v>
+      </c>
+      <c r="K4">
+        <v>5</v>
+      </c>
+      <c r="L4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0.5</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>18</v>
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5">
+        <v>0.7</v>
+      </c>
+      <c r="J5">
+        <v>0.25</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="L5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>3</v>
       </c>
-      <c r="F4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4">
-        <v>0.1</v>
-      </c>
-      <c r="I4">
-        <v>0.15</v>
-      </c>
-      <c r="J4">
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>0.5</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6">
+        <v>0.7</v>
+      </c>
+      <c r="J6">
+        <v>0.25</v>
+      </c>
+      <c r="K6">
         <v>5</v>
       </c>
-      <c r="K4">
-        <v>0.05</v>
-      </c>
-      <c r="L4" t="s">
-        <v>34</v>
-      </c>
-      <c r="M4">
+      <c r="L6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7">
         <v>3</v>
       </c>
-      <c r="F5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5">
-        <v>0.1</v>
-      </c>
-      <c r="I5">
-        <v>0.15</v>
-      </c>
-      <c r="J5">
+      <c r="D7">
+        <v>0.5</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
         <v>5</v>
       </c>
-      <c r="K5">
-        <v>0.05</v>
-      </c>
-      <c r="L5" t="s">
-        <v>34</v>
-      </c>
-      <c r="M5">
+      <c r="G7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7">
+        <v>0.7</v>
+      </c>
+      <c r="J7">
+        <v>0.25</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="L7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6">
-        <v>0.1</v>
-      </c>
-      <c r="I6">
-        <v>0.15</v>
-      </c>
-      <c r="J6">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>5</v>
       </c>
-      <c r="K6">
-        <v>0.05</v>
-      </c>
-      <c r="L6" t="s">
-        <v>34</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7">
-        <v>0.1</v>
-      </c>
-      <c r="I7">
-        <v>0.15</v>
-      </c>
-      <c r="J7">
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>0.5</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
         <v>5</v>
       </c>
-      <c r="K7">
-        <v>0.05</v>
-      </c>
-      <c r="L7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M7">
+      <c r="G8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8">
+        <v>0.7</v>
+      </c>
+      <c r="J8">
+        <v>0.25</v>
+      </c>
+      <c r="K8">
+        <v>5</v>
+      </c>
+      <c r="L8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8">
         <v>1</v>
       </c>
     </row>

--- a/Product/Table/Turret.xlsx
+++ b/Product/Table/Turret.xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
   <si>
     <t>int</t>
   </si>
@@ -97,10 +97,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BulletName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RecoilDistance</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -157,10 +153,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>每次攻击伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>攻击冷却时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -177,10 +169,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Bullet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Icon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -210,15 +198,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AttackValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Effect_MuzzleFlash</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Effect_MuzzleFlash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BulletId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -581,11 +573,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4:D8"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -596,20 +588,20 @@
     <col min="4" max="4" width="15.44140625" customWidth="1"/>
     <col min="5" max="5" width="15.109375" customWidth="1"/>
     <col min="6" max="6" width="13.44140625" customWidth="1"/>
-    <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" customWidth="1"/>
-    <col min="11" max="11" width="16.21875" customWidth="1"/>
-    <col min="12" max="12" width="21.77734375" customWidth="1"/>
-    <col min="13" max="13" width="15.44140625" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1"/>
+    <col min="10" max="10" width="16.21875" customWidth="1"/>
+    <col min="11" max="11" width="21.77734375" customWidth="1"/>
+    <col min="12" max="12" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -618,7 +610,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>7</v>
@@ -641,16 +633,13 @@
       <c r="L1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -665,68 +654,65 @@
         <v>6</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="H3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -738,36 +724,33 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="H4">
+        <v>0.7</v>
       </c>
       <c r="I4">
-        <v>0.7</v>
+        <v>0.25</v>
       </c>
       <c r="J4">
-        <v>0.25</v>
-      </c>
-      <c r="K4">
         <v>5</v>
       </c>
-      <c r="L4" t="s">
-        <v>40</v>
-      </c>
-      <c r="M4">
+      <c r="K4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -776,39 +759,36 @@
         <v>0.5</v>
       </c>
       <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>7</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5">
+        <v>0.7</v>
+      </c>
+      <c r="I5">
+        <v>0.25</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="K5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5">
         <v>1</v>
       </c>
-      <c r="F5">
-        <v>3</v>
-      </c>
-      <c r="G5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5">
-        <v>0.7</v>
-      </c>
-      <c r="J5">
-        <v>0.25</v>
-      </c>
-      <c r="K5">
-        <v>5</v>
-      </c>
-      <c r="L5" t="s">
-        <v>39</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -817,39 +797,36 @@
         <v>0.5</v>
       </c>
       <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>7</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6">
+        <v>0.7</v>
+      </c>
+      <c r="I6">
+        <v>0.25</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="K6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6">
         <v>1</v>
       </c>
-      <c r="F6">
-        <v>4</v>
-      </c>
-      <c r="G6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6">
-        <v>0.7</v>
-      </c>
-      <c r="J6">
-        <v>0.25</v>
-      </c>
-      <c r="K6">
-        <v>5</v>
-      </c>
-      <c r="L6" t="s">
-        <v>39</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -858,39 +835,36 @@
         <v>0.5</v>
       </c>
       <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>7</v>
+      </c>
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7">
+        <v>0.7</v>
+      </c>
+      <c r="I7">
+        <v>0.25</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="K7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7">
         <v>1</v>
       </c>
-      <c r="F7">
-        <v>5</v>
-      </c>
-      <c r="G7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7">
-        <v>0.7</v>
-      </c>
-      <c r="J7">
-        <v>0.25</v>
-      </c>
-      <c r="K7">
-        <v>5</v>
-      </c>
-      <c r="L7" t="s">
-        <v>39</v>
-      </c>
-      <c r="M7">
-        <v>1</v>
-      </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -899,30 +873,27 @@
         <v>0.5</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F8">
+        <v>7</v>
+      </c>
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8">
+        <v>0.7</v>
+      </c>
+      <c r="I8">
+        <v>0.25</v>
+      </c>
+      <c r="J8">
         <v>5</v>
       </c>
-      <c r="G8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8">
-        <v>0.7</v>
-      </c>
-      <c r="J8">
-        <v>0.25</v>
-      </c>
-      <c r="K8">
-        <v>5</v>
-      </c>
-      <c r="L8" t="s">
-        <v>39</v>
-      </c>
-      <c r="M8">
+      <c r="K8" t="s">
+        <v>35</v>
+      </c>
+      <c r="L8">
         <v>1</v>
       </c>
     </row>

--- a/Product/Table/Turret.xlsx
+++ b/Product/Table/Turret.xlsx
@@ -1,18 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView windowWidth="28800" windowHeight="10860"/>
   </bookViews>
   <sheets>
     <sheet name="Turret|炮台" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -24,15 +32,13 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="C3" authorId="0" shapeId="0">
+    <comment ref="C3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -40,9 +46,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -61,195 +65,282 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Icon</t>
+  </si>
+  <si>
+    <t>ColorType</t>
+  </si>
+  <si>
+    <t>AttackCooldown</t>
+  </si>
+  <si>
+    <t>BulletId</t>
+  </si>
+  <si>
+    <t>MaxHitNum</t>
+  </si>
+  <si>
+    <t>FireSound</t>
+  </si>
+  <si>
+    <t>RecoilDistance</t>
+  </si>
+  <si>
+    <t>RecoilDuration</t>
+  </si>
+  <si>
+    <t>RecoilRotation</t>
+  </si>
+  <si>
+    <t>MuzzleEffectName</t>
+  </si>
+  <si>
+    <t>MuzzleEffectScale</t>
+  </si>
   <si>
     <t>int</t>
   </si>
   <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>enum(ColorType)</t>
+  </si>
+  <si>
     <t>float</t>
   </si>
   <si>
-    <t>Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ColorType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enum(ColorType)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AttackCooldown</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaxHitNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FireSound</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RecoilDistance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RecoilDuration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RecoilRotation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MuzzleEffectName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MuzzleEffectScale</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>图片名称</t>
+  </si>
+  <si>
+    <t>颜色类型</t>
+  </si>
+  <si>
+    <t>攻击冷却时间</t>
+  </si>
+  <si>
+    <t>子弹ID</t>
+  </si>
+  <si>
+    <t>最大攻击数量</t>
+  </si>
+  <si>
+    <t>后坐力后退距离</t>
+  </si>
+  <si>
+    <t>后坐力复位时间</t>
+  </si>
+  <si>
+    <t>后坐力旋转角度（枪口上抬）</t>
+  </si>
+  <si>
+    <t>炮口特效名称</t>
   </si>
   <si>
     <t>炮口特效缩放</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>炮口特效名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后坐力旋转角度（枪口上抬）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后坐力复位时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后坐力后退距离</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大攻击数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击冷却时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>颜色类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Icon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图片名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Turret_1</t>
-  </si>
-  <si>
-    <t>Turret_2</t>
-  </si>
-  <si>
-    <t>Turret_3</t>
-  </si>
-  <si>
-    <t>Turret_0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Turret_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Product/Game/Icon/Turrets/Turret_0.png</t>
+  </si>
+  <si>
+    <t>Turret_Fire</t>
   </si>
   <si>
     <t>Effect_MuzzleFlash</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effect_MuzzleFlash</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BulletId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>子弹ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Product/Game/Icon/Turrets/Turret_1.png</t>
+  </si>
+  <si>
+    <t>Product/Game/Icon/Turrets/Turret_2.png</t>
+  </si>
+  <si>
+    <t>Product/Game/Icon/Turrets/Turret_3.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
-      <color indexed="81"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -262,8 +353,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -273,38 +550,324 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -353,7 +916,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -388,7 +951,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -562,157 +1125,153 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" customWidth="1"/>
+    <col min="1" max="1" width="5.33035714285714" customWidth="1"/>
+    <col min="2" max="2" width="54.2232142857143" customWidth="1"/>
+    <col min="3" max="3" width="16.3303571428571" customWidth="1"/>
+    <col min="4" max="4" width="15.4375" customWidth="1"/>
+    <col min="5" max="5" width="15.1071428571429" customWidth="1"/>
+    <col min="6" max="6" width="13.4375" customWidth="1"/>
+    <col min="7" max="7" width="11.3303571428571" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" customWidth="1"/>
-    <col min="10" max="10" width="16.21875" customWidth="1"/>
-    <col min="11" max="11" width="21.77734375" customWidth="1"/>
-    <col min="12" max="12" width="15.44140625" customWidth="1"/>
+    <col min="9" max="9" width="14.6607142857143" customWidth="1"/>
+    <col min="10" max="10" width="16.2232142857143" customWidth="1"/>
+    <col min="11" max="11" width="21.7767857142857" customWidth="1"/>
+    <col min="12" max="12" width="15.4375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1" spans="1:12">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="1" t="s">
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:12">
+      <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="1" t="s">
+    <row r="3" s="1" customFormat="1" spans="1:12">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>14</v>
+      <c r="H3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -727,7 +1286,7 @@
         <v>7</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H4">
         <v>0.7</v>
@@ -739,13 +1298,13 @@
         <v>5</v>
       </c>
       <c r="K4" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>2</v>
       </c>
@@ -765,7 +1324,7 @@
         <v>7</v>
       </c>
       <c r="G5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H5">
         <v>0.7</v>
@@ -777,13 +1336,13 @@
         <v>5</v>
       </c>
       <c r="K5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>3</v>
       </c>
@@ -803,7 +1362,7 @@
         <v>7</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H6">
         <v>0.7</v>
@@ -815,13 +1374,13 @@
         <v>5</v>
       </c>
       <c r="K6" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>4</v>
       </c>
@@ -841,7 +1400,7 @@
         <v>7</v>
       </c>
       <c r="G7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H7">
         <v>0.7</v>
@@ -853,54 +1412,16 @@
         <v>5</v>
       </c>
       <c r="K7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8">
-        <v>4</v>
-      </c>
-      <c r="D8">
-        <v>0.5</v>
-      </c>
-      <c r="E8">
-        <v>5</v>
-      </c>
-      <c r="F8">
-        <v>7</v>
-      </c>
-      <c r="G8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8">
-        <v>0.7</v>
-      </c>
-      <c r="I8">
-        <v>0.25</v>
-      </c>
-      <c r="J8">
-        <v>5</v>
-      </c>
-      <c r="K8" t="s">
-        <v>35</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>